--- a/01.Staff List/Working Calendar from March 2014-Feb 2015 (2014.03.06).xlsx
+++ b/01.Staff List/Working Calendar from March 2014-Feb 2015 (2014.03.06).xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="22932" windowHeight="9480" tabRatio="176"/>
+    <workbookView xWindow="100" yWindow="100" windowWidth="22940" windowHeight="9480" tabRatio="176"/>
   </bookViews>
   <sheets>
     <sheet name="2014.03-2015.02" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,12 +126,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,6 +166,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -666,27 +677,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" style="8" customWidth="1"/>
-    <col min="2" max="6" width="8.88671875" style="8"/>
-    <col min="7" max="7" width="10.5546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="8"/>
+    <col min="2" max="6" width="8.83203125" style="8"/>
+    <col min="7" max="7" width="10.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="8"/>
     <col min="10" max="10" width="12" style="8" customWidth="1"/>
-    <col min="11" max="19" width="8.88671875" style="8"/>
+    <col min="11" max="19" width="8.83203125" style="8"/>
     <col min="20" max="20" width="14.6640625" style="8" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="8"/>
+    <col min="21" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="17.399999999999999" customHeight="1">
+    <row r="2" spans="1:22" ht="17.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -721,7 +732,7 @@
       </c>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="17.399999999999999" customHeight="1">
+    <row r="3" spans="1:22" ht="17.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -773,7 +784,7 @@
       </c>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="1:22" ht="17.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -801,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="17.399999999999999" customHeight="1">
+    <row r="5" spans="1:22" ht="17.5" customHeight="1">
       <c r="A5" s="10">
         <v>5</v>
       </c>
@@ -845,7 +856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17.399999999999999" customHeight="1">
+    <row r="6" spans="1:22" ht="17.5" customHeight="1">
       <c r="A6" s="10">
         <v>12</v>
       </c>
@@ -889,7 +900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="17.399999999999999" customHeight="1">
+    <row r="7" spans="1:22" ht="17.5" customHeight="1">
       <c r="A7" s="10">
         <v>19</v>
       </c>
@@ -932,8 +943,11 @@
       <c r="P7" s="10">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="17.399999999999999" customHeight="1">
+      <c r="S7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="17.5" customHeight="1">
       <c r="A8" s="10">
         <v>26</v>
       </c>
@@ -975,13 +989,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="17.399999999999999" customHeight="1">
+    <row r="9" spans="1:22" ht="17.5" customHeight="1">
       <c r="J9" s="10">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="17.399999999999999" customHeight="1"/>
-    <row r="11" spans="1:22" ht="17.399999999999999" customHeight="1">
+    <row r="10" spans="1:22" ht="17.5" customHeight="1"/>
+    <row r="11" spans="1:22" ht="17.5" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1008,7 +1022,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="17.399999999999999" customHeight="1">
+    <row r="12" spans="1:22" ht="17.5" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1052,7 +1066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="17.399999999999999" customHeight="1">
+    <row r="13" spans="1:22" ht="17.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1082,7 +1096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="17.399999999999999" customHeight="1">
+    <row r="14" spans="1:22" ht="17.5" customHeight="1">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -1126,7 +1140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="17.399999999999999" customHeight="1">
+    <row r="15" spans="1:22" ht="17.5" customHeight="1">
       <c r="A15" s="10">
         <v>9</v>
       </c>
@@ -1170,7 +1184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="17.399999999999999" customHeight="1">
+    <row r="16" spans="1:22" ht="17.5" customHeight="1">
       <c r="A16" s="10">
         <v>16</v>
       </c>
@@ -1214,7 +1228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="17" spans="1:16" ht="17.5" customHeight="1">
       <c r="A17" s="10">
         <v>23</v>
       </c>
@@ -1248,11 +1262,11 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="18" spans="1:16" ht="17.5" customHeight="1">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="17.399999999999999" customHeight="1"/>
-    <row r="20" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="19" spans="1:16" ht="17.5" customHeight="1"/>
+    <row r="20" spans="1:16" ht="17.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1278,7 +1292,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="21" spans="1:16" ht="17.5" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="22" spans="1:16" ht="17.5" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1348,7 +1362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="23" spans="1:16" ht="17.5" customHeight="1">
       <c r="A23" s="16">
         <v>2</v>
       </c>
@@ -1392,7 +1406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="24" spans="1:16" ht="17.5" customHeight="1">
       <c r="A24" s="16">
         <v>9</v>
       </c>
@@ -1436,7 +1450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="25" spans="1:16" ht="17.5" customHeight="1">
       <c r="A25" s="16">
         <v>16</v>
       </c>
@@ -1480,7 +1494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="26" spans="1:16" ht="17.5" customHeight="1">
       <c r="A26" s="16">
         <v>23</v>
       </c>
@@ -1522,7 +1536,7 @@
       </c>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="27" spans="1:16" ht="17.5" customHeight="1">
       <c r="A27" s="16">
         <v>30</v>
       </c>
@@ -1530,9 +1544,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="17.399999999999999" customHeight="1"/>
-    <row r="29" spans="1:16" ht="17.399999999999999" customHeight="1"/>
-    <row r="30" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="28" spans="1:16" ht="17.5" customHeight="1"/>
+    <row r="29" spans="1:16" ht="17.5" customHeight="1"/>
+    <row r="30" spans="1:16" ht="17.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>22</v>
       </c>
@@ -1558,7 +1572,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="31" spans="1:16" ht="17.5" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>1</v>
       </c>
@@ -1602,7 +1616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="32" spans="1:16" ht="17.5" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2">
@@ -1628,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="33" spans="1:16" ht="17.5" customHeight="1">
       <c r="A33" s="17">
         <v>6</v>
       </c>
@@ -1672,7 +1686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="34" spans="1:16" ht="17.5" customHeight="1">
       <c r="A34" s="17">
         <v>13</v>
       </c>
@@ -1716,7 +1730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="35" spans="1:16" ht="17.5" customHeight="1">
       <c r="A35" s="17">
         <v>20</v>
       </c>
@@ -1760,7 +1774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="36" spans="1:16" ht="17.5" customHeight="1">
       <c r="A36" s="17">
         <v>27</v>
       </c>
@@ -1797,13 +1811,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="37" spans="1:16" ht="17.5" customHeight="1">
       <c r="J37" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="17.399999999999999" customHeight="1"/>
-    <row r="39" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="38" spans="1:16" ht="17.5" customHeight="1"/>
+    <row r="39" spans="1:16" ht="17.5" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1843,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="40" spans="1:16" ht="17.5" customHeight="1">
       <c r="A40" s="7" t="s">
         <v>1</v>
       </c>
@@ -1873,7 +1887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="41" spans="1:16" ht="17.5" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -1907,7 +1921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="42" spans="1:16" ht="17.5" customHeight="1">
       <c r="A42" s="24">
         <v>4</v>
       </c>
@@ -1951,7 +1965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="43" spans="1:16" ht="17.5" customHeight="1">
       <c r="A43" s="24">
         <v>11</v>
       </c>
@@ -1995,7 +2009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="44" spans="1:16" ht="17.5" customHeight="1">
       <c r="A44" s="24">
         <v>18</v>
       </c>
@@ -2039,7 +2053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="45" spans="1:16" ht="17.5" customHeight="1">
       <c r="A45" s="24">
         <v>25</v>
       </c>
@@ -2075,9 +2089,9 @@
       </c>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:16" ht="17.399999999999999" customHeight="1"/>
-    <row r="47" spans="1:16" ht="17.399999999999999" customHeight="1"/>
-    <row r="48" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="46" spans="1:16" ht="17.5" customHeight="1"/>
+    <row r="47" spans="1:16" ht="17.5" customHeight="1"/>
+    <row r="48" spans="1:16" ht="17.5" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>24</v>
       </c>
@@ -2104,7 +2118,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="49" spans="1:16" ht="17.5" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>1</v>
       </c>
@@ -2148,7 +2162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="50" spans="1:16" ht="17.5" customHeight="1">
       <c r="A50" s="10">
         <v>1</v>
       </c>
@@ -2184,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="51" spans="1:16" ht="17.5" customHeight="1">
       <c r="A51" s="10">
         <v>8</v>
       </c>
@@ -2228,7 +2242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="52" spans="1:16" ht="17.5" customHeight="1">
       <c r="A52" s="10">
         <v>15</v>
       </c>
@@ -2272,7 +2286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="53" spans="1:16" ht="17.5" customHeight="1">
       <c r="A53" s="10">
         <v>22</v>
       </c>
@@ -2316,7 +2330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="54" spans="1:16" ht="17.5" customHeight="1">
       <c r="A54" s="10">
         <v>29</v>
       </c>
@@ -2345,9 +2359,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="17.399999999999999" customHeight="1"/>
-    <row r="56" spans="1:16" ht="17.399999999999999" customHeight="1"/>
-    <row r="57" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="55" spans="1:16" ht="17.5" customHeight="1"/>
+    <row r="56" spans="1:16" ht="17.5" customHeight="1"/>
+    <row r="57" spans="1:16" ht="17.5" customHeight="1">
       <c r="A57" s="6" t="s">
         <v>25</v>
       </c>
@@ -2374,7 +2388,7 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="58" spans="1:16" ht="17.5" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>1</v>
       </c>
@@ -2418,7 +2432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="59" spans="1:16" ht="17.5" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2">
@@ -2444,7 +2458,7 @@
       <c r="O59" s="2"/>
       <c r="P59" s="5"/>
     </row>
-    <row r="60" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="60" spans="1:16" ht="17.5" customHeight="1">
       <c r="A60" s="10">
         <v>6</v>
       </c>
@@ -2488,7 +2502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="61" spans="1:16" ht="17.5" customHeight="1">
       <c r="A61" s="10">
         <v>13</v>
       </c>
@@ -2532,7 +2546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="62" spans="1:16" ht="17.5" customHeight="1">
       <c r="A62" s="10">
         <v>20</v>
       </c>
@@ -2576,7 +2590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="17.399999999999999" customHeight="1">
+    <row r="63" spans="1:16" ht="17.5" customHeight="1">
       <c r="A63" s="10">
         <v>27</v>
       </c>
@@ -2617,6 +2631,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>